--- a/lowiga_db/Excels_Old/Status.xlsx
+++ b/lowiga_db/Excels_Old/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/Python/LogiwaDB/lowiga_db/Excels_Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C157A753-CA1C-AA4A-8079-40F6E1B460FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B617EDC-01E0-9244-8B2B-86327A9612F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="760" windowWidth="28580" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Entered</t>
   </si>
   <si>
@@ -74,13 +71,16 @@
   </si>
   <si>
     <t>Freezed</t>
+  </si>
+  <si>
+    <t>status_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -93,6 +93,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,12 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,100 +348,98 @@
   </sheetPr>
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/lowiga_db/Excels_Old/Status.xlsx
+++ b/lowiga_db/Excels_Old/Status.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/Python/LogiwaDB/lowiga_db/Excels_Old/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B617EDC-01E0-9244-8B2B-86327A9612F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="820" yWindow="760" windowWidth="28580" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>Entered</t>
   </si>
@@ -65,40 +62,23 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>Freezed</t>
-  </si>
-  <si>
-    <t>status_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,47 +86,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -336,113 +305,148 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>